--- a/.Project Files Sprint Backlog and Tests/sprint backlog team jazz.xlsx
+++ b/.Project Files Sprint Backlog and Tests/sprint backlog team jazz.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>Description</t>
   </si>
@@ -106,13 +106,16 @@
   </si>
   <si>
     <t>Ross</t>
+  </si>
+  <si>
+    <t>Total hours remaining:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -176,6 +179,10 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -189,6 +196,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2522807198119845E-2"/>
+          <c:y val="7.4548702245552642E-2"/>
+          <c:w val="0.76370377232257736"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40826</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40829</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40830</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40834</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40835</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40836</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$28:$P$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="61864192"/>
+        <c:axId val="61862656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="61864192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61862656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="61862656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61864192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -266,7 +454,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -301,7 +488,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -477,14 +663,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="97.5703125" bestFit="1" customWidth="1"/>
@@ -492,9 +678,10 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -513,8 +700,38 @@
       <c r="F4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="8">
+        <v>40826</v>
+      </c>
+      <c r="H4" s="8">
+        <v>40827</v>
+      </c>
+      <c r="I4" s="8">
+        <v>40828</v>
+      </c>
+      <c r="J4" s="8">
+        <v>40829</v>
+      </c>
+      <c r="K4" s="8">
+        <v>40830</v>
+      </c>
+      <c r="L4" s="8">
+        <v>40833</v>
+      </c>
+      <c r="M4" s="8">
+        <v>40834</v>
+      </c>
+      <c r="N4" s="8">
+        <v>40835</v>
+      </c>
+      <c r="O4" s="8">
+        <v>40836</v>
+      </c>
+      <c r="P4" s="8">
+        <v>40837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -530,8 +747,38 @@
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
         <v>1.2</v>
       </c>
@@ -547,8 +794,38 @@
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>1.3</v>
       </c>
@@ -564,8 +841,38 @@
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2">
         <v>1.4</v>
       </c>
@@ -581,8 +888,38 @@
       <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="2">
         <v>1.5</v>
       </c>
@@ -598,8 +935,38 @@
       <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2">
         <v>1.6</v>
       </c>
@@ -615,8 +982,38 @@
       <c r="E10" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2">
         <v>1.7</v>
       </c>
@@ -632,8 +1029,38 @@
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="2">
         <v>1.8</v>
       </c>
@@ -649,8 +1076,38 @@
       <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="5">
         <v>1.9</v>
       </c>
@@ -666,8 +1123,38 @@
       <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -683,8 +1170,38 @@
       <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2">
         <v>1.1100000000000001</v>
       </c>
@@ -700,11 +1217,41 @@
       <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="2">
         <v>2.1</v>
       </c>
@@ -712,7 +1259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -728,8 +1275,38 @@
       <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -745,8 +1322,38 @@
       <c r="E19" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="2">
         <v>2.4</v>
       </c>
@@ -762,8 +1369,38 @@
       <c r="E20" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="2">
         <v>2.5</v>
       </c>
@@ -779,11 +1416,41 @@
       <c r="E21" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="3">
         <v>3.1</v>
       </c>
@@ -791,7 +1458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="3">
         <v>3.2</v>
       </c>
@@ -807,8 +1474,38 @@
       <c r="E24" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="3">
         <v>3.3</v>
       </c>
@@ -824,8 +1521,38 @@
       <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="3">
         <v>3.4</v>
       </c>
@@ -841,113 +1568,180 @@
       <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>38</v>
+      </c>
+      <c r="G28">
+        <v>33</v>
+      </c>
+      <c r="H28">
+        <v>29</v>
+      </c>
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <v>19</v>
+      </c>
+      <c r="K28">
+        <v>14</v>
+      </c>
+      <c r="L28">
+        <v>13</v>
+      </c>
+      <c r="M28">
+        <v>9</v>
+      </c>
+      <c r="N28">
+        <v>8</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
